--- a/assets/disciplinas/LOB1018.xlsx
+++ b/assets/disciplinas/LOB1018.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-1,EM-1,EA-1,EB-2,EP-2,EQD-1,EQN-2</t>
+    <t>EF-1,EM-1,EA-2,EB-2,EP-2,EQD-1,EQN-2</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1018.xlsx
+++ b/assets/disciplinas/LOB1018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos os conceitos introdutórios de Física e em particular, da Mecânica incluindo cinemática e dinâmica, além de conceitos de estatística básica e análise de dados.</t>
+    <t>8711686 - Flavia Reis Cardoso Rojas</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,24 +82,21 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8711686 - Flavia Reis Cardoso Rojas</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
     <t>Introdução a física, Cinemática, Dinâmica, Trabalho, Torque e Momento Angular.</t>
   </si>
   <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Introdução a Física: noções de algarismos, análise dimensional, sistemas de unidades.2) Cinemática: leis de Newton e aplicações.3) Trabalho: conservação de energia, forças conservativas, aplicações.4) Impulso: momento linear e conservação de momento linear.5) Torque e momento angular: conservação de momento angular, pêndulo.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 1, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol.1, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol.1, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física I, Vol. 1, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 1, Thomson Pioneira (2008).</t>
   </si>
 </sst>
 </file>
@@ -486,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,61 +611,64 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -696,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -705,17 +702,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1018.xlsx
+++ b/assets/disciplinas/LOB1018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,33 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos os conceitos introdutórios de Física e em particular, da Mecânica incluindo cinemática e dinâmica, além de conceitos de estatística básica e análise de dados.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Presenting to the students the introductory concepts of Physics and in particular, of Mechanics including kinematics and dynamics, including basic concepts of statistical and data analysis.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8711686 - Flavia Reis Cardoso Rojas</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Presenting to the students the introductory concepts of Physics and in particular, of Mechanics including kinematics and dynamics, including basic concepts of statistical and data analysis.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução a física, Cinemática, Dinâmica, Trabalho, Torque e Momento Angular.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>Introdução a física, Cinemática, Dinâmica, Trabalho, Torque e Momento Angular.</t>
-  </si>
-  <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Introdução a Física: noções de algarismos, análise dimensional, sistemas de unidades.2) Cinemática: leis de Newton e aplicações.3) Trabalho: conservação de energia, forças conservativas, aplicações.4) Impulso: momento linear e conservação de momento linear.5) Torque e momento angular: conservação de momento angular, pêndulo.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada</t>
+    <t>NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 1, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol.1, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol.1, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física I, Vol. 1, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 1, Thomson Pioneira (2008).</t>
   </si>
 </sst>
 </file>
@@ -480,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,64 +617,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -693,7 +696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,6 +705,17 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
